--- a/Doc/Configurations.xlsx
+++ b/Doc/Configurations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1AAC1-2AEC-4557-B4B3-28BC98BD0A25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC63EFD-1211-4E4B-A34B-496FBEC7C563}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="2490" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28305" yWindow="1170" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定时器分配" sheetId="2" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -793,14 +793,14 @@
         <v>49</v>
       </c>
       <c r="E10" s="1">
-        <v>167</v>
+        <v>1679</v>
       </c>
       <c r="F10" s="1">
         <v>1999</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -926,6 +926,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/Configurations.xlsx
+++ b/Doc/Configurations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC63EFD-1211-4E4B-A34B-496FBEC7C563}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314461E6-5CBC-439B-AB5F-E3FB2105B593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28305" yWindow="1170" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27855" yWindow="1860" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定时器分配" sheetId="2" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,14 +649,14 @@
         <v>47</v>
       </c>
       <c r="E4" s="1">
-        <v>16799</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1">
-        <v>199</v>
+        <v>1999</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">

--- a/Doc/Configurations.xlsx
+++ b/Doc/Configurations.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314461E6-5CBC-439B-AB5F-E3FB2105B593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F3A06-CD32-401F-AC23-8DBE7D9757A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27855" yWindow="1860" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1050" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定时器分配" sheetId="2" r:id="rId1"/>
     <sheet name="中断优先级配置" sheetId="1" r:id="rId2"/>
+    <sheet name="任务板引脚统计" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t xml:space="preserve"> TIM3_IRQn                 </t>
   </si>
@@ -221,6 +227,169 @@
   </si>
   <si>
     <t>数据通道（未启用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引脚功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引脚可配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BH1750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYN7318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,16 +412,49 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,20 +462,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - 着色 1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - 着色 1" xfId="3" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -284,6 +559,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{66FB614A-6195-4715-8284-941786FA52F3}" name="表4" displayName="表4" ref="A1:G15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A1:G15" xr:uid="{EF62F0BC-405A-47F5-96A1-D86BB8465FA9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3824E76A-F8A7-4722-AF69-AE19422EDF42}" name="总线" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{68F12B43-3A3A-446E-AD84-3C543625EBEB}" name="时钟（MHz）" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3B323036-EA40-4446-891C-F30A372DDD34}" name="TIMx"/>
+    <tableColumn id="4" xr3:uid="{61A15BE2-EEFC-459D-959C-93E101B3B679}" name="功能"/>
+    <tableColumn id="5" xr3:uid="{9D776A53-E518-4586-A456-7A3FE1FDEB7F}" name="Period" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{AF0C7DA0-DF41-443F-9D18-8DBB53053A00}" name="Prescaler" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C3E263C7-3274-47E6-A323-D4962B35C55B}" name="定时时间（ms）" dataDxfId="3">
+      <calculatedColumnFormula>((1+E2)*(1+F2)/(B2*1000000))*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10C6200A-73A3-40D9-88B0-66F1B14769D2}" name="表3" displayName="表3" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{AAA8DDE6-7F6D-42EA-907C-C924B90A64D4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{30DBC3EA-339D-4C0D-A668-89AB0C5E405D}" name="响应顺序" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3085FE16-036B-4812-8FEE-13EA6768AF15}" name="中断号"/>
+    <tableColumn id="3" xr3:uid="{5B8B95FB-6E8F-405C-887D-72B493EDC326}" name="功能"/>
+    <tableColumn id="4" xr3:uid="{BCCC039F-3A15-4AAB-B58A-264CEBE3C4C9}" name="抢占" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{86CBFD51-1D14-4EF2-AA36-5D757623D215}" name="响应" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,16 +859,17 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -927,6 +1235,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -935,11 +1246,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
@@ -947,7 +1259,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
@@ -964,7 +1276,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -981,7 +1293,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -998,7 +1310,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1015,7 +1327,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1032,7 +1344,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1049,7 +1361,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1066,7 +1378,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1083,7 +1395,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1100,7 +1412,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1117,7 +1429,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1134,7 +1446,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1151,7 +1463,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1174,5 +1486,218 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184AE3CC-8E60-4588-94A6-844968114937}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>